--- a/generated/meta.xlsx
+++ b/generated/meta.xlsx
@@ -510,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,25 +671,30 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -711,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,25 +902,30 @@
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -932,7 +942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF1"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,25 +1218,30 @@
       </c>
       <c r="BB1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -1248,7 +1263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD1"/>
+  <dimension ref="A1:DE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1774,25 +1789,30 @@
       </c>
       <c r="CZ1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="DA1" t="inlineStr">
+      <c r="DB1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="DB1" t="inlineStr">
+      <c r="DC1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="DC1" t="inlineStr">
+      <c r="DD1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="DD1" t="inlineStr">
+      <c r="DE1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -1817,7 +1837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,25 +2013,30 @@
       </c>
       <c r="AH1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -2028,7 +2053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM1"/>
+  <dimension ref="A1:BN1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2339,25 +2364,30 @@
       </c>
       <c r="BI1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -2374,7 +2404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2555,20 +2585,25 @@
       </c>
       <c r="AI1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
@@ -2585,7 +2620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2746,25 +2781,30 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -2781,7 +2821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2942,25 +2982,30 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -2977,7 +3022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:BJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,25 +3313,30 @@
       </c>
       <c r="BE1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -3463,7 +3513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3624,25 +3674,30 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -3659,7 +3714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3820,25 +3875,30 @@
       </c>
       <c r="AE1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -4079,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD1"/>
+  <dimension ref="A1:BE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,25 +4405,30 @@
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -4380,7 +4445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4556,25 +4621,30 @@
       </c>
       <c r="AH1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
@@ -4753,7 +4823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5024,25 +5094,30 @@
       </c>
       <c r="BA1" t="inlineStr">
         <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>last_updated_on</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>modified_by</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>rank</t>
         </is>
